--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -53,6 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -62,6 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -77,6 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -86,6 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -101,6 +105,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -110,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -136,6 +142,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -145,6 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -157,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
   <si>
     <t>TypeID</t>
   </si>
@@ -792,6 +800,248 @@
   </si>
   <si>
     <t>1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原力法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达贡之神力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL的神圣法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>狂战斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>先锋盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>振魂石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>西瓦的守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>黯灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +1049,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,19 +1084,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1178,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2174,43 +2411,412 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="263">
   <si>
     <t>TypeID</t>
   </si>
@@ -1042,6 +1042,81 @@
   </si>
   <si>
     <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>170</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1415,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2818,10 +2893,299 @@
         <v>240</v>
       </c>
     </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C80" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -160,12 +160,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否售卖 1:卖  2:不卖</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="266">
   <si>
     <t>TypeID</t>
   </si>
@@ -1076,47 +1102,56 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>170</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSell</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1182,10 +1217,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1490,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB96"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1520,7 +1556,9 @@
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1560,7 +1598,9 @@
       <c r="E2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1600,6 +1640,9 @@
       <c r="E3" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1617,6 +1660,9 @@
       <c r="E4" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1634,6 +1680,9 @@
       <c r="E5" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1651,6 +1700,9 @@
       <c r="E6" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1668,6 +1720,9 @@
       <c r="E7" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1685,6 +1740,9 @@
       <c r="E8" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1702,6 +1760,9 @@
       <c r="E9" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1719,6 +1780,9 @@
       <c r="E10" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1736,6 +1800,9 @@
       <c r="E11" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1753,6 +1820,9 @@
       <c r="E12" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1770,6 +1840,9 @@
       <c r="E13" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -1787,6 +1860,9 @@
       <c r="E14" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1804,6 +1880,9 @@
       <c r="E15" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1821,8 +1900,11 @@
       <c r="E16" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1838,8 +1920,11 @@
       <c r="E17" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1855,8 +1940,11 @@
       <c r="E18" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1872,8 +1960,11 @@
       <c r="E19" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1889,8 +1980,11 @@
       <c r="E20" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -1906,8 +2000,11 @@
       <c r="E21" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1923,8 +2020,11 @@
       <c r="E22" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +2040,11 @@
       <c r="E23" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -1957,8 +2060,11 @@
       <c r="E24" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -1974,8 +2080,11 @@
       <c r="E25" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -1991,8 +2100,11 @@
       <c r="E26" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2008,8 +2120,11 @@
       <c r="E27" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2025,8 +2140,11 @@
       <c r="E28" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2042,8 +2160,11 @@
       <c r="E29" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2059,8 +2180,11 @@
       <c r="E30" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -2076,8 +2200,11 @@
       <c r="E31" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -2093,8 +2220,11 @@
       <c r="E32" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2110,8 +2240,11 @@
       <c r="E33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -2127,8 +2260,11 @@
       <c r="E34" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2144,8 +2280,11 @@
       <c r="E35" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2161,8 +2300,11 @@
       <c r="E36" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2178,8 +2320,11 @@
       <c r="E37" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2195,8 +2340,11 @@
       <c r="E38" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2360,11 @@
       <c r="E39" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2229,8 +2380,11 @@
       <c r="E40" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2246,8 +2400,11 @@
       <c r="E41" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2263,8 +2420,11 @@
       <c r="E42" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2280,8 +2440,11 @@
       <c r="E43" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2297,8 +2460,11 @@
       <c r="E44" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
@@ -2314,8 +2480,11 @@
       <c r="E45" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -2331,8 +2500,11 @@
       <c r="E46" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
@@ -2348,8 +2520,11 @@
       <c r="E47" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -2365,8 +2540,11 @@
       <c r="E48" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -2382,8 +2560,11 @@
       <c r="E49" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
@@ -2399,8 +2580,11 @@
       <c r="E50" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -2416,8 +2600,11 @@
       <c r="E51" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -2433,8 +2620,11 @@
       <c r="E52" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -2450,8 +2640,11 @@
       <c r="E53" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
@@ -2467,8 +2660,11 @@
       <c r="E54" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -2484,8 +2680,11 @@
       <c r="E55" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>215</v>
       </c>
@@ -2501,8 +2700,11 @@
       <c r="E56" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
@@ -2518,8 +2720,11 @@
       <c r="E57" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
@@ -2535,8 +2740,11 @@
       <c r="E58" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
@@ -2552,8 +2760,11 @@
       <c r="E59" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
@@ -2569,8 +2780,11 @@
       <c r="E60" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>217</v>
       </c>
@@ -2586,8 +2800,11 @@
       <c r="E61" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>218</v>
       </c>
@@ -2603,8 +2820,11 @@
       <c r="E62" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>219</v>
       </c>
@@ -2620,8 +2840,11 @@
       <c r="E63" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>220</v>
       </c>
@@ -2637,8 +2860,11 @@
       <c r="E64" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -2654,8 +2880,11 @@
       <c r="E65" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
@@ -2671,8 +2900,11 @@
       <c r="E66" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>195</v>
       </c>
@@ -2688,8 +2920,11 @@
       <c r="E67" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -2705,8 +2940,11 @@
       <c r="E68" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>199</v>
       </c>
@@ -2722,8 +2960,11 @@
       <c r="E69" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>201</v>
       </c>
@@ -2739,8 +2980,11 @@
       <c r="E70" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -2756,8 +3000,11 @@
       <c r="E71" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
@@ -2773,8 +3020,11 @@
       <c r="E72" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
@@ -2790,8 +3040,11 @@
       <c r="E73" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>224</v>
       </c>
@@ -2807,8 +3060,11 @@
       <c r="E74" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>225</v>
       </c>
@@ -2824,8 +3080,11 @@
       <c r="E75" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>203</v>
       </c>
@@ -2841,8 +3100,11 @@
       <c r="E76" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -2858,8 +3120,11 @@
       <c r="E77" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -2875,8 +3140,11 @@
       <c r="E78" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -2892,8 +3160,11 @@
       <c r="E79" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>211</v>
       </c>
@@ -2909,8 +3180,11 @@
       <c r="E80" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>213</v>
       </c>
@@ -2926,8 +3200,11 @@
       <c r="E81" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>243</v>
       </c>
@@ -2943,8 +3220,11 @@
       <c r="E82" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>244</v>
       </c>
@@ -2958,10 +3238,13 @@
         <v>247</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -2975,10 +3258,13 @@
         <v>247</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>246</v>
       </c>
@@ -2992,10 +3278,13 @@
         <v>247</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -3009,10 +3298,13 @@
         <v>247</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>72</v>
       </c>
@@ -3026,10 +3318,13 @@
         <v>247</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>73</v>
       </c>
@@ -3043,10 +3338,13 @@
         <v>247</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>74</v>
       </c>
@@ -3060,10 +3358,13 @@
         <v>247</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+        <v>262</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>75</v>
       </c>
@@ -3077,10 +3378,13 @@
         <v>247</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>76</v>
       </c>
@@ -3094,10 +3398,13 @@
         <v>247</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>77</v>
       </c>
@@ -3111,10 +3418,13 @@
         <v>247</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>78</v>
       </c>
@@ -3128,10 +3438,13 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>79</v>
       </c>
@@ -3145,10 +3458,13 @@
         <v>247</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
@@ -3162,10 +3478,13 @@
         <v>247</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>81</v>
       </c>
@@ -3179,7 +3498,70 @@
         <v>247</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
+        <v>122</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="268">
   <si>
     <t>TypeID</t>
   </si>
@@ -1102,11 +1102,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>170</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>170</t>
+    <t>IsSell</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1114,44 +1151,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>IsSell</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
+    <t>37000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1528,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1557,7 +1565,7 @@
         <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2781,7 +2789,7 @@
         <v>228</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2801,7 +2809,7 @@
         <v>230</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2821,7 +2829,7 @@
         <v>231</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2861,7 +2869,7 @@
         <v>231</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -3118,7 +3126,7 @@
         <v>128</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3261,7 +3269,7 @@
         <v>136</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -3318,10 +3326,10 @@
         <v>247</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -3338,7 +3346,7 @@
         <v>247</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3358,7 +3366,7 @@
         <v>247</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3378,7 +3386,7 @@
         <v>247</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3398,7 +3406,7 @@
         <v>247</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3418,7 +3426,7 @@
         <v>247</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3438,7 +3446,7 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3498,7 +3506,7 @@
         <v>247</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3515,10 +3523,10 @@
         <v>67</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3526,7 +3534,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>45</v>
@@ -3535,10 +3543,10 @@
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3546,7 +3554,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>52</v>
@@ -3555,10 +3563,10 @@
         <v>122</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F99">
         <v>1</v>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -186,12 +186,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+等级</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="269">
   <si>
     <t>TypeID</t>
   </si>
@@ -1160,6 +1186,10 @@
   </si>
   <si>
     <t>3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1225,11 +1255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1536,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1567,7 +1598,9 @@
       <c r="F1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1609,7 +1642,9 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1651,6 +1686,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1671,6 +1709,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1691,6 +1732,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1711,6 +1755,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1731,6 +1778,9 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1751,6 +1801,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1771,6 +1824,9 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1791,6 +1847,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1811,6 +1870,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1831,6 +1893,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1851,6 +1916,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -1871,6 +1939,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1891,6 +1962,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1911,8 +1985,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1931,8 +2008,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1951,8 +2031,11 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1971,8 +2054,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1991,8 +2077,11 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2011,8 +2100,11 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2031,8 +2123,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2051,8 +2146,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2071,8 +2169,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2091,8 +2192,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2111,8 +2215,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2131,8 +2238,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2151,8 +2261,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2191,8 +2307,11 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -2211,8 +2330,11 @@
       <c r="F31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
@@ -2231,8 +2353,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2251,8 +2376,11 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
@@ -2271,8 +2399,11 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -2291,8 +2422,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
@@ -2311,8 +2445,11 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -2331,8 +2468,11 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -2351,8 +2491,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -2371,8 +2514,11 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -2391,8 +2537,11 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
@@ -2411,8 +2560,11 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -2431,8 +2583,11 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
@@ -2451,8 +2606,11 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
@@ -2471,8 +2629,11 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
@@ -2491,8 +2652,11 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
@@ -2511,8 +2675,11 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
@@ -2531,8 +2698,11 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
@@ -2551,8 +2721,11 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -2571,8 +2744,11 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2767,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
@@ -2611,8 +2790,11 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
@@ -2631,8 +2813,11 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
@@ -2651,8 +2836,11 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
@@ -2671,8 +2859,11 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -2691,8 +2882,11 @@
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>215</v>
       </c>
@@ -2711,8 +2905,11 @@
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>185</v>
       </c>
@@ -2731,8 +2928,11 @@
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>187</v>
       </c>
@@ -2751,8 +2951,11 @@
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>189</v>
       </c>
@@ -2771,8 +2974,11 @@
       <c r="F59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
@@ -2791,8 +2997,11 @@
       <c r="F60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>217</v>
       </c>
@@ -2811,8 +3020,11 @@
       <c r="F61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>218</v>
       </c>
@@ -2831,8 +3043,11 @@
       <c r="F62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>219</v>
       </c>
@@ -2851,8 +3066,11 @@
       <c r="F63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>220</v>
       </c>
@@ -2871,8 +3089,11 @@
       <c r="F64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>191</v>
       </c>
@@ -2891,8 +3112,11 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>193</v>
       </c>
@@ -2911,8 +3135,11 @@
       <c r="F66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>195</v>
       </c>
@@ -2931,8 +3158,11 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>197</v>
       </c>
@@ -2951,8 +3181,11 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G68" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>199</v>
       </c>
@@ -2971,8 +3204,11 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>201</v>
       </c>
@@ -2991,8 +3227,11 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>221</v>
       </c>
@@ -3011,8 +3250,11 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
@@ -3031,8 +3273,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
@@ -3051,8 +3296,11 @@
       <c r="F73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>224</v>
       </c>
@@ -3071,8 +3319,11 @@
       <c r="F74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>225</v>
       </c>
@@ -3091,8 +3342,11 @@
       <c r="F75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>203</v>
       </c>
@@ -3111,8 +3365,11 @@
       <c r="F76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>205</v>
       </c>
@@ -3131,8 +3388,11 @@
       <c r="F77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>207</v>
       </c>
@@ -3151,8 +3411,11 @@
       <c r="F78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>209</v>
       </c>
@@ -3171,8 +3434,11 @@
       <c r="F79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>211</v>
       </c>
@@ -3191,8 +3457,11 @@
       <c r="F80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>213</v>
       </c>
@@ -3211,8 +3480,11 @@
       <c r="F81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>243</v>
       </c>
@@ -3231,8 +3503,11 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>244</v>
       </c>
@@ -3251,8 +3526,11 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>245</v>
       </c>
@@ -3271,8 +3549,11 @@
       <c r="F84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>246</v>
       </c>
@@ -3291,8 +3572,11 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -3311,8 +3595,11 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>72</v>
       </c>
@@ -3331,8 +3618,11 @@
       <c r="F87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>73</v>
       </c>
@@ -3351,8 +3641,11 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>74</v>
       </c>
@@ -3371,8 +3664,11 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>75</v>
       </c>
@@ -3391,8 +3687,11 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>76</v>
       </c>
@@ -3411,8 +3710,11 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>77</v>
       </c>
@@ -3431,8 +3733,11 @@
       <c r="F92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>78</v>
       </c>
@@ -3451,8 +3756,11 @@
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>79</v>
       </c>
@@ -3471,8 +3779,11 @@
       <c r="F94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>80</v>
       </c>
@@ -3491,8 +3802,11 @@
       <c r="F95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>81</v>
       </c>
@@ -3511,8 +3825,11 @@
       <c r="F96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G96" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>82</v>
       </c>
@@ -3531,8 +3848,11 @@
       <c r="F97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>255</v>
       </c>
@@ -3551,8 +3871,11 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>256</v>
       </c>
@@ -3569,6 +3892,9 @@
         <v>260</v>
       </c>
       <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
         <v>1</v>
       </c>
     </row>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -120,17 +120,7 @@
           </rPr>
           <t xml:space="preserve">
 价格类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>1:金币  2:砖石</t>
+10000:金币  10001:砖石</t>
         </r>
       </text>
     </comment>
@@ -217,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="265">
   <si>
     <t>TypeID</t>
   </si>
@@ -664,17 +654,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>135</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1109,13 +1088,6 @@
     <t>85</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>160</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1145,14 +1117,6 @@
     <t>99</t>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1190,6 +1154,16 @@
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>10001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1542,7 @@
   <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1596,10 +1570,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1634,10 +1608,10 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1678,10 +1652,10 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1701,10 +1675,10 @@
         <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1724,10 +1698,10 @@
         <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1747,10 +1721,10 @@
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1770,10 +1744,10 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1793,10 +1767,10 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1816,10 +1790,10 @@
         <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1839,10 +1813,10 @@
         <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1862,10 +1836,10 @@
         <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1885,10 +1859,10 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1908,10 +1882,10 @@
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1931,10 +1905,10 @@
         <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1954,10 +1928,10 @@
         <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1977,10 +1951,10 @@
         <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2000,10 +1974,10 @@
         <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2023,10 +1997,10 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2046,10 +2020,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2069,10 +2043,10 @@
         <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2092,10 +2066,10 @@
         <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2115,10 +2089,10 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2138,10 +2112,10 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2161,10 +2135,10 @@
         <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2184,10 +2158,10 @@
         <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2207,10 +2181,10 @@
         <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2230,10 +2204,10 @@
         <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2253,10 +2227,10 @@
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2276,10 +2250,10 @@
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2299,10 +2273,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2322,10 +2296,10 @@
         <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2345,10 +2319,10 @@
         <v>118</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2368,10 +2342,10 @@
         <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2391,10 +2365,10 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2414,10 +2388,10 @@
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2437,10 +2411,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2460,10 +2434,10 @@
         <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2483,10 +2457,10 @@
         <v>120</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2506,10 +2480,10 @@
         <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2529,10 +2503,10 @@
         <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2552,10 +2526,10 @@
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2575,10 +2549,10 @@
         <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2598,10 +2572,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2621,10 +2595,10 @@
         <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2644,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2667,10 +2641,10 @@
         <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2690,10 +2664,10 @@
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2713,10 +2687,10 @@
         <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2736,10 +2710,10 @@
         <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2759,10 +2733,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2782,10 +2756,10 @@
         <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2805,10 +2779,10 @@
         <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2828,10 +2802,10 @@
         <v>89</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2851,10 +2825,10 @@
         <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2874,10 +2848,10 @@
         <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2888,19 +2862,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2911,19 +2885,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2934,19 +2908,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2957,19 +2931,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2980,19 +2954,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -3003,19 +2977,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3026,19 +3000,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3049,19 +3023,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -3072,19 +3046,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3095,19 +3069,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -3118,19 +3092,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3141,19 +3115,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3164,19 +3138,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3187,19 +3161,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3210,19 +3184,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3233,19 +3207,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3256,19 +3230,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3279,19 +3253,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3302,19 +3276,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3325,19 +3299,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3348,19 +3322,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3371,19 +3345,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3394,19 +3368,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3417,19 +3391,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -3440,19 +3414,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3463,19 +3437,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3486,19 +3460,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3509,19 +3483,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3532,19 +3506,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -3555,19 +3529,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3584,13 +3558,13 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3607,13 +3581,13 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -3630,13 +3604,13 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3650,16 +3624,16 @@
         <v>74</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3673,16 +3647,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3696,16 +3670,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3719,16 +3693,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3742,16 +3716,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3765,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3788,16 +3762,16 @@
         <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3811,16 +3785,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3840,10 +3814,10 @@
         <v>67</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3854,7 +3828,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>45</v>
@@ -3863,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3877,7 +3851,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>52</v>
@@ -3886,10 +3860,10 @@
         <v>122</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F99">
         <v>1</v>
